--- a/data/Robos PG.xlsx
+++ b/data/Robos PG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/RepMapaCalorPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/appRiskPG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{72AD0E9C-F1A7-4CAD-BE6F-DAD0999DAD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B872969-C91C-4EDF-AB86-6617DAFE2812}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{72AD0E9C-F1A7-4CAD-BE6F-DAD0999DAD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A57E701B-85D3-43FA-ADCF-5CDC7273D2DD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4ACCD119-BA6A-4918-B720-516649735839}"/>
   </bookViews>
@@ -2532,7 +2532,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2628,13 +2628,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3092,7 +3092,7 @@
   <dimension ref="A1:X274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A273"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
